--- a/public/import/templates/导入模板_员工表.xlsx
+++ b/public/import/templates/导入模板_员工表.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="导入-员工" r:id="rId3" sheetId="1"/>
+    <sheet name="导入员工" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -88,7 +88,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,6 +100,8 @@
     <col min="4" max="4" width="19.140625" customWidth="true"/>
     <col min="5" max="5" width="19.140625" customWidth="true"/>
     <col min="6" max="6" width="19.140625" customWidth="true"/>
+    <col min="7" max="7" width="19.140625" customWidth="true"/>
+    <col min="8" max="8" width="19.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,11 +135,24 @@
           <t>行政组织编码(必填)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>岗位编码(必填)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>人员类型(必填)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" sqref="C2:C65536" allowBlank="true" errorStyle="stop" showDropDown="false">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H2:H65536" allowBlank="true" errorStyle="stop" showDropDown="false">
+      <formula1>"正式工,临时工,调度"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
